--- a/IC files/results/longDTA/all_comparisons_set.xlsx
+++ b/IC files/results/longDTA/all_comparisons_set.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">CW1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0155395626749261</t>
+    <t xml:space="preserve">0.0155395626749255</t>
   </si>
   <si>
     <t xml:space="preserve">CW2</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">ELM1A</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0730345747330512</t>
+    <t xml:space="preserve">0.0730345747330525</t>
   </si>
   <si>
     <t xml:space="preserve">0.0000000000225006679954731</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">ELM1R_active</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551388402361003</t>
+    <t xml:space="preserve">0.551388402361008</t>
   </si>
   <si>
     <t xml:space="preserve">ELM1R</t>
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.74929561878775</v>
+        <v>2.74929561878776</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>8.55915274708213</v>
+        <v>8.55915274708212</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>1.1011150276714</v>
+        <v>1.10111502767139</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -727,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>1.09230365287114</v>
+        <v>1.09230365287113</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>-14.9373210479824</v>
+        <v>-14.9373210479825</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>-17.7956036283379</v>
+        <v>-17.7956036283378</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>-3.41408633698002</v>
+        <v>-3.41408633698001</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1063,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>6.14539816890876</v>
+        <v>6.14539816890877</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1077,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>-9.13534440534868</v>
+        <v>-9.13534440534867</v>
       </c>
       <c r="C46" t="s">
         <v>32</v>
